--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H2">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J2">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>758.8534681089186</v>
+        <v>236.8804273872673</v>
       </c>
       <c r="R2">
-        <v>6829.681212980267</v>
+        <v>2131.923846485406</v>
       </c>
       <c r="S2">
-        <v>0.004867761769680495</v>
+        <v>0.001728116098589502</v>
       </c>
       <c r="T2">
-        <v>0.004867761769680495</v>
+        <v>0.001728116098589502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H3">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J3">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>22713.28363985821</v>
+        <v>15190.56223469411</v>
       </c>
       <c r="R3">
-        <v>204419.5527587239</v>
+        <v>136715.060112247</v>
       </c>
       <c r="S3">
-        <v>0.1456972372301817</v>
+        <v>0.1108198572332179</v>
       </c>
       <c r="T3">
-        <v>0.1456972372301817</v>
+        <v>0.1108198572332179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H4">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J4">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>3118.829667362003</v>
+        <v>1860.080037895272</v>
       </c>
       <c r="R4">
-        <v>28069.46700625803</v>
+        <v>16740.72034105744</v>
       </c>
       <c r="S4">
-        <v>0.02000612826974793</v>
+        <v>0.01356986009188774</v>
       </c>
       <c r="T4">
-        <v>0.02000612826974793</v>
+        <v>0.01356986009188774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.32574466666667</v>
+        <v>62.41592166666667</v>
       </c>
       <c r="H5">
-        <v>279.977234</v>
+        <v>187.247765</v>
       </c>
       <c r="I5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="J5">
-        <v>0.2327963689879921</v>
+        <v>0.1654944774607044</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>9700.524125076345</v>
+        <v>5397.528717067242</v>
       </c>
       <c r="R5">
-        <v>87304.71712568711</v>
+        <v>48577.75845360518</v>
       </c>
       <c r="S5">
-        <v>0.06222524171838201</v>
+        <v>0.03937664403700926</v>
       </c>
       <c r="T5">
-        <v>0.06222524171838202</v>
+        <v>0.03937664403700926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J6">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>1339.944134599187</v>
+        <v>625.4088502096736</v>
       </c>
       <c r="R6">
-        <v>12059.49721139269</v>
+        <v>5628.679651887062</v>
       </c>
       <c r="S6">
-        <v>0.008595241513705987</v>
+        <v>0.004562551301381944</v>
       </c>
       <c r="T6">
-        <v>0.008595241513705986</v>
+        <v>0.004562551301381943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J7">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>40105.93938057539</v>
       </c>
       <c r="R7">
-        <v>360953.4544251784</v>
+        <v>360953.4544251785</v>
       </c>
       <c r="S7">
-        <v>0.2572646323148482</v>
+        <v>0.2925852517959127</v>
       </c>
       <c r="T7">
-        <v>0.2572646323148481</v>
+        <v>0.2925852517959127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J8">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>5507.067826954741</v>
+        <v>4910.960903900234</v>
       </c>
       <c r="R8">
-        <v>49563.61044259267</v>
+        <v>44198.64813510211</v>
       </c>
       <c r="S8">
-        <v>0.03532578469713219</v>
+        <v>0.03582698111101865</v>
       </c>
       <c r="T8">
-        <v>0.03532578469713218</v>
+        <v>0.03582698111101863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.4110597662007076</v>
+        <v>0.4369365253446571</v>
       </c>
       <c r="J9">
-        <v>0.4110597662007076</v>
+        <v>0.436936525344657</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>17128.6828751349</v>
+        <v>14250.49028384253</v>
       </c>
       <c r="R9">
-        <v>154158.1458762141</v>
+        <v>128254.4125545828</v>
       </c>
       <c r="S9">
-        <v>0.1098741076750213</v>
+        <v>0.1039617411363438</v>
       </c>
       <c r="T9">
-        <v>0.1098741076750213</v>
+        <v>0.1039617411363438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H10">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J10">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>381.6696238264946</v>
+        <v>218.1713183441984</v>
       </c>
       <c r="R10">
-        <v>3435.026614438451</v>
+        <v>1963.541865097785</v>
       </c>
       <c r="S10">
-        <v>0.002448268185610089</v>
+        <v>0.001591627352414048</v>
       </c>
       <c r="T10">
-        <v>0.00244826818561009</v>
+        <v>0.001591627352414048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H11">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J11">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>11423.77387335719</v>
+        <v>13990.79284720569</v>
       </c>
       <c r="R11">
-        <v>102813.9648602147</v>
+        <v>125917.1356248512</v>
       </c>
       <c r="S11">
-        <v>0.07327924568201553</v>
+        <v>0.1020671678870274</v>
       </c>
       <c r="T11">
-        <v>0.07327924568201555</v>
+        <v>0.1020671678870274</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H12">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J12">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>1568.632938961694</v>
+        <v>1713.168616628185</v>
       </c>
       <c r="R12">
-        <v>14117.69645065525</v>
+        <v>15418.51754965366</v>
       </c>
       <c r="S12">
-        <v>0.01006219483975967</v>
+        <v>0.0124980957635363</v>
       </c>
       <c r="T12">
-        <v>0.01006219483975967</v>
+        <v>0.0124980957635363</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>46.93870866666666</v>
+        <v>57.486235</v>
       </c>
       <c r="H13">
-        <v>140.816126</v>
+        <v>172.458705</v>
       </c>
       <c r="I13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="J13">
-        <v>0.117086244332836</v>
+        <v>0.1524235190071549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>4878.933218773032</v>
+        <v>4971.225225282276</v>
       </c>
       <c r="R13">
-        <v>43910.39896895728</v>
+        <v>44741.0270275405</v>
       </c>
       <c r="S13">
-        <v>0.03129653562545066</v>
+        <v>0.03626662800417718</v>
       </c>
       <c r="T13">
-        <v>0.03129653562545067</v>
+        <v>0.03626662800417718</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H14">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J14">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>779.2634617394119</v>
+        <v>350.8888425530421</v>
       </c>
       <c r="R14">
-        <v>7013.371155654707</v>
+        <v>3157.999582977379</v>
       </c>
       <c r="S14">
-        <v>0.004998684261161654</v>
+        <v>0.002559842804741339</v>
       </c>
       <c r="T14">
-        <v>0.004998684261161654</v>
+        <v>0.002559842804741339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H15">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J15">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>23324.17624811411</v>
+        <v>22501.64295569941</v>
       </c>
       <c r="R15">
-        <v>209917.586233027</v>
+        <v>202514.7866012947</v>
       </c>
       <c r="S15">
-        <v>0.1496158853076017</v>
+        <v>0.1641564559189383</v>
       </c>
       <c r="T15">
-        <v>0.1496158853076017</v>
+        <v>0.1641564559189383</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H16">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J16">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>3202.713178896955</v>
+        <v>2755.319798904472</v>
       </c>
       <c r="R16">
-        <v>28824.41861007259</v>
+        <v>24797.87819014025</v>
       </c>
       <c r="S16">
-        <v>0.02054420968825148</v>
+        <v>0.02010091147574967</v>
       </c>
       <c r="T16">
-        <v>0.02054420968825148</v>
+        <v>0.02010091147574967</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.835818</v>
+        <v>92.45614233333333</v>
       </c>
       <c r="H17">
-        <v>287.507454</v>
+        <v>277.368427</v>
       </c>
       <c r="I17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="J17">
-        <v>0.2390576204784642</v>
+        <v>0.2451454781874835</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>9961.427769753156</v>
+        <v>7995.31065131949</v>
       </c>
       <c r="R17">
-        <v>89652.8499277784</v>
+        <v>71957.79586187541</v>
       </c>
       <c r="S17">
-        <v>0.06389884122144945</v>
+        <v>0.05832826798805415</v>
       </c>
       <c r="T17">
-        <v>0.06389884122144945</v>
+        <v>0.05832826798805415</v>
       </c>
     </row>
   </sheetData>
